--- a/src/pom/ExcelData/LeaveAndAttendance/EmployeeAttendanceCalender.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/EmployeeAttendanceCalender.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8340" tabRatio="458" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8340" tabRatio="458" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeAttendanceCalender" sheetId="1" r:id="rId1"/>
     <sheet name="AttendanceApproval" sheetId="2" r:id="rId2"/>
     <sheet name="AttendanceVerify" sheetId="3" r:id="rId3"/>
     <sheet name="ColourCode" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -61,7 +62,7 @@
     <t>SEP 2017</t>
   </si>
   <si>
-    <t>Ramnaresh  Sarwan</t>
+    <t>F Dinesh</t>
   </si>
   <si>
     <t>25-Sep-17</t>
@@ -94,11 +95,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -115,6 +116,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -180,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +201,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -552,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
@@ -563,7 +573,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -611,8 +621,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -641,7 +651,7 @@
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -663,7 +673,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +719,7 @@
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -747,4 +757,21 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>